--- a/URINELOTS.xlsx
+++ b/URINELOTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{53582479-E799-4FF0-9386-6F099E984F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAD098CB-EF83-4EB6-ABC9-88727CDBCA43}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{53582479-E799-4FF0-9386-6F099E984F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B51736-592A-4FB6-BD75-5DEFD50AA1DA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A788DE1B-CEB4-48F5-975E-A82EA37F3ED9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="307">
   <si>
     <t>Patients Name</t>
   </si>
@@ -591,9 +591,6 @@
   </si>
   <si>
     <t>Pushpa kumari</t>
-  </si>
-  <si>
-    <t>E.fecalis</t>
   </si>
   <si>
     <t>Sulekha</t>
@@ -1333,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACCA5FB-E99D-44C2-85BD-4C6BBDE25FC7}">
   <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="R68" sqref="R68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4743,7 +4740,7 @@
         <v>20200075595</v>
       </c>
       <c r="F78" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
         <v>18</v>
@@ -4775,7 +4772,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B79">
         <v>37</v>
@@ -4784,7 +4781,7 @@
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E79">
         <v>20230040481</v>
@@ -4822,7 +4819,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B80">
         <v>43</v>
@@ -4831,7 +4828,7 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E80">
         <v>20240062455</v>
@@ -4869,7 +4866,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B81">
         <v>35</v>
@@ -4878,7 +4875,7 @@
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E81">
         <v>20240062254</v>
@@ -4916,7 +4913,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B82">
         <v>33</v>
@@ -4925,13 +4922,13 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E82">
         <v>20240048215</v>
       </c>
       <c r="F82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G82" t="s">
         <v>93</v>
@@ -4963,7 +4960,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B83">
         <v>58</v>
@@ -4972,7 +4969,7 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E83">
         <v>20240060273</v>
@@ -4981,7 +4978,7 @@
         <v>7</v>
       </c>
       <c r="G83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H83">
         <v>-7.94</v>
@@ -5010,7 +5007,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B84">
         <v>56</v>
@@ -5019,7 +5016,7 @@
         <v>124</v>
       </c>
       <c r="D84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E84">
         <v>20240054804</v>
@@ -5057,7 +5054,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B85">
         <v>51</v>
@@ -5066,13 +5063,13 @@
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E85">
         <v>20240051976</v>
       </c>
       <c r="F85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G85" t="s">
         <v>44</v>
@@ -5104,7 +5101,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B86">
         <v>71</v>
@@ -5119,7 +5116,7 @@
         <v>20240068214</v>
       </c>
       <c r="F86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G86" t="s">
         <v>44</v>
@@ -5151,7 +5148,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B87">
         <v>35</v>
@@ -5198,7 +5195,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B88">
         <v>31</v>
@@ -5207,7 +5204,7 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E88">
         <v>20240066137</v>
@@ -5245,7 +5242,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B89">
         <v>21</v>
@@ -5254,7 +5251,7 @@
         <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E89">
         <v>20240069492</v>
@@ -5292,7 +5289,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B90">
         <v>30</v>
@@ -5301,7 +5298,7 @@
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E90">
         <v>20240067159</v>
@@ -5348,13 +5345,13 @@
         <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E91">
         <v>20230028720</v>
       </c>
       <c r="F91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G91" t="s">
         <v>69</v>
@@ -5386,7 +5383,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B92">
         <v>67</v>
@@ -5395,16 +5392,16 @@
         <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E92">
         <v>20240046542</v>
       </c>
       <c r="F92" t="s">
+        <v>210</v>
+      </c>
+      <c r="G92" t="s">
         <v>211</v>
-      </c>
-      <c r="G92" t="s">
-        <v>212</v>
       </c>
       <c r="H92">
         <v>-6.35</v>
@@ -5433,7 +5430,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B93">
         <v>20</v>
@@ -5442,13 +5439,13 @@
         <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E93">
         <v>20230137322</v>
       </c>
       <c r="F93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G93" t="s">
         <v>44</v>
@@ -5480,7 +5477,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B94">
         <v>28</v>
@@ -5489,13 +5486,13 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E94">
         <v>20240015478</v>
       </c>
       <c r="F94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G94" t="s">
         <v>69</v>
@@ -5527,7 +5524,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B95">
         <v>39</v>
@@ -5536,13 +5533,13 @@
         <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E95">
         <v>20240068424</v>
       </c>
       <c r="F95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G95" t="s">
         <v>102</v>
@@ -5574,7 +5571,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B96">
         <v>65</v>
@@ -5589,7 +5586,7 @@
         <v>20240071058</v>
       </c>
       <c r="F96" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G96" t="s">
         <v>21</v>
@@ -5636,10 +5633,10 @@
         <v>20240074728</v>
       </c>
       <c r="F97" t="s">
+        <v>221</v>
+      </c>
+      <c r="G97" t="s">
         <v>222</v>
-      </c>
-      <c r="G97" t="s">
-        <v>223</v>
       </c>
       <c r="H97">
         <v>-8.42</v>
@@ -5668,7 +5665,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B98">
         <v>31</v>
@@ -5686,7 +5683,7 @@
         <v>44</v>
       </c>
       <c r="G98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H98">
         <v>-4.17</v>
@@ -5715,7 +5712,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B99">
         <v>31</v>
@@ -5730,7 +5727,7 @@
         <v>20240076716</v>
       </c>
       <c r="F99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G99" t="s">
         <v>44</v>
@@ -5762,7 +5759,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B100">
         <v>37</v>
@@ -5777,7 +5774,7 @@
         <v>20240078762</v>
       </c>
       <c r="F100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G100" t="s">
         <v>44</v>
@@ -5809,7 +5806,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B101">
         <v>43</v>
@@ -5856,7 +5853,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B102">
         <v>26</v>
@@ -5865,16 +5862,16 @@
         <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E102">
         <v>20240062956</v>
       </c>
       <c r="F102" t="s">
+        <v>232</v>
+      </c>
+      <c r="G102" t="s">
         <v>233</v>
-      </c>
-      <c r="G102" t="s">
-        <v>234</v>
       </c>
       <c r="H102">
         <v>-5.1440000000000001</v>
@@ -5903,7 +5900,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B103">
         <v>26</v>
@@ -5912,7 +5909,7 @@
         <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E103">
         <v>20240088127</v>
@@ -5947,7 +5944,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B104">
         <v>29</v>
@@ -5956,7 +5953,7 @@
         <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E104">
         <v>20240076818</v>
@@ -5994,7 +5991,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B105">
         <v>60</v>
@@ -6059,7 +6056,7 @@
         <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6088,7 +6085,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B107">
         <v>32</v>
@@ -6106,7 +6103,7 @@
         <v>69</v>
       </c>
       <c r="G107" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H107">
         <v>-10.09</v>
@@ -6132,7 +6129,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B108">
         <v>60</v>
@@ -6147,10 +6144,10 @@
         <v>20240092861</v>
       </c>
       <c r="F108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K108">
         <v>-4</v>
@@ -6167,7 +6164,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B109">
         <v>28</v>
@@ -6182,10 +6179,10 @@
         <v>20240087671</v>
       </c>
       <c r="F109" t="s">
+        <v>243</v>
+      </c>
+      <c r="G109" t="s">
         <v>244</v>
-      </c>
-      <c r="G109" t="s">
-        <v>245</v>
       </c>
       <c r="H109">
         <v>-7.09</v>
@@ -6214,7 +6211,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B110">
         <v>42</v>
@@ -6229,10 +6226,10 @@
         <v>20230121277</v>
       </c>
       <c r="F110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G110" t="s">
         <v>247</v>
-      </c>
-      <c r="G110" t="s">
-        <v>248</v>
       </c>
       <c r="H110">
         <v>-10.29</v>
@@ -6261,7 +6258,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B111">
         <v>22</v>
@@ -6276,10 +6273,10 @@
         <v>20240094465</v>
       </c>
       <c r="F111" t="s">
+        <v>249</v>
+      </c>
+      <c r="G111" t="s">
         <v>250</v>
-      </c>
-      <c r="G111" t="s">
-        <v>251</v>
       </c>
       <c r="H111">
         <v>-9.5</v>
@@ -6308,7 +6305,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B112">
         <v>56</v>
@@ -6326,7 +6323,7 @@
         <v>44</v>
       </c>
       <c r="G112" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H112">
         <v>-2.84</v>
@@ -6355,7 +6352,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B113">
         <v>39</v>
@@ -6364,16 +6361,16 @@
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E113">
         <v>20240053790</v>
       </c>
       <c r="F113" t="s">
+        <v>255</v>
+      </c>
+      <c r="G113" t="s">
         <v>256</v>
-      </c>
-      <c r="G113" t="s">
-        <v>257</v>
       </c>
       <c r="H113">
         <v>-8.8000000000000007</v>
@@ -6402,7 +6399,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B114">
         <v>49</v>
@@ -6411,13 +6408,13 @@
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E114">
         <v>20240039512</v>
       </c>
       <c r="F114" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G114" t="s">
         <v>44</v>
@@ -6449,7 +6446,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B115">
         <v>38</v>
@@ -6493,7 +6490,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B116">
         <v>45</v>
@@ -6513,7 +6510,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B117">
         <v>34</v>
@@ -6522,7 +6519,7 @@
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E117">
         <v>20170059075</v>
@@ -6560,7 +6557,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B118">
         <v>32</v>
@@ -6607,7 +6604,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B119">
         <v>54</v>
@@ -6616,7 +6613,7 @@
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E119">
         <v>20240043449</v>
@@ -6651,7 +6648,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B120">
         <v>43</v>
@@ -6698,7 +6695,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B121">
         <v>49</v>
@@ -6742,7 +6739,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B122">
         <v>41</v>
@@ -6789,7 +6786,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B123">
         <v>24</v>
@@ -6812,7 +6809,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C124" t="s">
         <v>124</v>
@@ -6827,12 +6824,12 @@
         <v>69</v>
       </c>
       <c r="G124" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B125">
         <v>20</v>
@@ -6855,7 +6852,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B126">
         <v>53</v>
@@ -6902,7 +6899,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B127">
         <v>30</v>
@@ -6946,7 +6943,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B128">
         <v>30</v>
@@ -6961,7 +6958,7 @@
         <v>106496785</v>
       </c>
       <c r="F128" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G128" t="s">
         <v>44</v>
@@ -6993,7 +6990,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B129">
         <v>52</v>
@@ -7040,7 +7037,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B130">
         <v>35</v>
@@ -7087,7 +7084,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B131">
         <v>22</v>
@@ -7102,7 +7099,7 @@
         <v>106037263</v>
       </c>
       <c r="F131" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G131" t="s">
         <v>44</v>
@@ -7134,7 +7131,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B132">
         <v>60</v>
@@ -7149,7 +7146,7 @@
         <v>105707937</v>
       </c>
       <c r="F132" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G132" t="s">
         <v>44</v>
@@ -7181,7 +7178,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B133">
         <v>48</v>
@@ -7190,7 +7187,7 @@
         <v>124</v>
       </c>
       <c r="D133" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E133">
         <v>10749833</v>
@@ -7228,7 +7225,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B134">
         <v>46</v>
@@ -7237,7 +7234,7 @@
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E134">
         <v>106940756</v>
@@ -7275,7 +7272,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B135">
         <v>29</v>
@@ -7284,7 +7281,7 @@
         <v>124</v>
       </c>
       <c r="D135" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E135">
         <v>107688917</v>
@@ -7322,7 +7319,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B136">
         <v>26</v>
@@ -7331,7 +7328,7 @@
         <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E136">
         <v>107656065</v>
@@ -7369,7 +7366,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B137">
         <v>46</v>
@@ -7378,7 +7375,7 @@
         <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E137">
         <v>107332121</v>
@@ -7413,7 +7410,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B138">
         <v>19</v>
@@ -7422,7 +7419,7 @@
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E138">
         <v>105499701</v>
@@ -7457,7 +7454,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B139">
         <v>53</v>
@@ -7466,13 +7463,13 @@
         <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E139">
         <v>107545828</v>
       </c>
       <c r="F139" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H139">
         <v>-4.82</v>
@@ -7501,7 +7498,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B140">
         <v>62</v>
@@ -7510,7 +7507,7 @@
         <v>124</v>
       </c>
       <c r="D140" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E140">
         <v>105152175</v>
@@ -7545,7 +7542,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B141">
         <v>23</v>
@@ -7554,7 +7551,7 @@
         <v>124</v>
       </c>
       <c r="D141" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E141">
         <v>106765529</v>
@@ -7592,7 +7589,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B142">
         <v>43</v>
@@ -7639,7 +7636,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B143">
         <v>17</v>
@@ -7648,7 +7645,7 @@
         <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E143">
         <v>107523163</v>
@@ -7683,7 +7680,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B144">
         <v>8</v>
@@ -7692,7 +7689,7 @@
         <v>124</v>
       </c>
       <c r="D144" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E144">
         <v>107579659</v>
@@ -7730,7 +7727,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B145">
         <v>23</v>
@@ -7739,7 +7736,7 @@
         <v>124</v>
       </c>
       <c r="D145" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E145">
         <v>107607851</v>
@@ -7774,16 +7771,16 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>303</v>
+      </c>
+      <c r="B146">
+        <v>16</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
         <v>304</v>
-      </c>
-      <c r="B146">
-        <v>16</v>
-      </c>
-      <c r="C146" t="s">
-        <v>16</v>
-      </c>
-      <c r="D146" t="s">
-        <v>305</v>
       </c>
       <c r="E146">
         <v>107727541</v>
@@ -7818,7 +7815,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B147">
         <v>28</v>
@@ -7827,7 +7824,7 @@
         <v>124</v>
       </c>
       <c r="D147" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E147">
         <v>107299718</v>

--- a/URINELOTS.xlsx
+++ b/URINELOTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{53582479-E799-4FF0-9386-6F099E984F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B51736-592A-4FB6-BD75-5DEFD50AA1DA}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{53582479-E799-4FF0-9386-6F099E984F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E653D866-1BF4-4432-B553-838C669E59BF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A788DE1B-CEB4-48F5-975E-A82EA37F3ED9}"/>
   </bookViews>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACCA5FB-E99D-44C2-85BD-4C6BBDE25FC7}">
   <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="R68" sqref="R68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="R76" sqref="R76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5160,7 +5160,7 @@
         <v>170</v>
       </c>
       <c r="E87">
-        <v>20240068214</v>
+        <v>20240068215</v>
       </c>
       <c r="F87" t="s">
         <v>44</v>
